--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,25 +486,40 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Bonus</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Text Bahasa</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Lokasi Stok</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Harga Lama</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Harga Baru</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>image</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Deskripsi</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>URL Product</t>
         </is>
@@ -563,25 +578,40 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2100</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://www.bukukita.com/babacms/displaybuku/98732_f.jpg</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Maaf, Majalah ini tidak dijual umum. Hanya untuk Testing Pengembangan system Bukukita.Terima kasih.</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>https://www.bukukita.com/Majalah/Testing/148732-Majalah-Animal-Minds.html</t>
         </is>
@@ -640,25 +670,40 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>75500</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>64175</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://www.bukukita.com/babacms/displaybuku/118886_f.jpg</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Kondisi Buku : Segel (Baru), Original 100% (Garansi Anti Bajakan)Setiap orang pasti ingin sehat selama-lamanya . Banyak sekali usaha yang di lakukan orang agar dapat tetap sehat sampai lanjut usia . Ada yang menjaga pola makan , istirahat dengan teratur, memperbayak olahraga, ikut asuransi kesehatan dan lain sebagainya . Buku inih mengupas berbagai hal agar tetap sehat sampai lanjut usia .</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>https://www.bukukita.com/Majalah/Kesehatan/168886-Sehat-Sampai-Tua.html</t>
         </is>
@@ -717,25 +762,40 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>35500</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>30175</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://www.bukukita.com/babacms/displaybuku/118119_f.jpg</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Ketika John D.Rockefeller masih remaja, sekitar pertengahan 1800-an, dia meminjamkan uang $50 kepada tetangganya seorang petani. Satu tahun kemudian, petani tersebut melunasi pinjamannya sebesar $50 ditambah bunga $3,50. Seminggu sebelumnya, Rockefeller memperoleh upah $1,12 sebagai upah bekerja yang terasa mematahkan seluruh tulang punggungnya, setelah dia bekerja 30 jam mencangkul lahan tanaman tomat petani tetangganya yang lain. Mulai saat ini, tulis Rockefeller dalam otobiografinya yang diberi judul Random Reminisences, Saya memutuskan untuk menjadikan uang bekerja untukku.Bagaimana dengan anda? Apakah anda akan memutuskan menjadikan uang bekerja untuk anda suatu hari nanti? Untuk itu kita akan berkenalan dengan investasi. Investasi adalah pengeluaran-pengeluaran yang dilakukan oleh seseorang atau perusahaan untuk membeli barang dan sekuritas dengan tujuan untuk menambah nilai suatu aset dimasa mendatang. Apa perbedaan dengan menabung? Kegiatan menunda konsumsi dan menyimpannya tersebut sebenarnya kurang menguntungkan untuk kita yang bertempat tinggal di negara dengan pertumbuhan inflasi yang cukup tinggi. Nilai uang kita akan tergerus dari waktu ke waktu. Nah sudah siap berinvestasi?</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>https://www.bukukita.com/Majalah/Bisnis/168119-Reksa-Dana-Itu-Mudah:-Langkah-Cerdas-Menjadi-Kaya.html</t>
         </is>
@@ -794,21 +854,36 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>55500</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>47175</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://www.bukukita.com/babacms/displaybuku/118179_f.jpg</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>https://www.bukukita.com/Majalah/Remaja-Umum/168179-WE-ARE-DIFFRENT-BUT-TOGETHER.html</t>
         </is>
@@ -867,27 +942,6806 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>55500</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>47175</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://www.bukukita.com/babacms/displaybuku/118127_f.jpg</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Jimin : Bis, bis apa yang bikin deg-degan?Karina: Bis apa, Bang ?Jimin : Bisikan saying dari kamuKarina: (*Koprol kanan-kiri depan-belakang terus sampai ke Cina)J-Hope : Ikan hiu makan roti.Herman: Apa?J-Hope : Aku cinta kamu sampai matiHerman: KAGAK LIAT GUE BEROTOT?! TAMPOL NI!</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>https://www.bukukita.com/Majalah/Olah-Raga/168127-Ngakak-Bareng-Bts&amp;Txt:-Biar-Somplak-Yang-Penting-Tampan.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Majalah Rakyat Merdeka Inspiring Achievement Vol. 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tim Redaksi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9772085535456</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>RM BOOKS</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>September - 2010</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>500 gr</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>51000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/34630_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>HEADLINES:INILAH CALON KETUM KADIN INDONESIA 2010-2015+ ADI PUTRA DARMAWAN TAHIR:KESERASIAN INTUISI &amp; NURANI DALAM BISNIS+ SURYO BAMBANG SULISTO: NAKHODA YANG INSPIRATIF+ SANDIAGA SALAHUDDIN UNO: OPTIMISME SANG MAESTRO UMKM+ CHRIS KANTER: SANG PEJUANG INVESTASI+ WISHRU WARDHARA: MITRA INDEPENDEN PEMERINTAH PUSAT</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/84630-Majalah-Rakyat-Merdeka-Inspiring-Achievement-Vol.-10.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2 Jutaan Keliling Thailand, Malaysia, Dan Singapura: Backpac</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ikhsan Bani</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9786232444683</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Histeria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Januari - 2021</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>250 gr</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Travel-Wisata</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>38500</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>32725</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/117515_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Bagi yang belum pernah backpaking, luar negeri selalu terasa asing dan menakutkan. Tapi kalau tidakmencoba maka tidak akan pernah tau apakah memang benar menakutkan atau itu semua hanyalah dalam imajinasi kita. Cobalah sekali-sekali melihat ke luar dan cobalah beberapa negara Asia Tenggara terdekat dari indonesia.Negara mana saja itu? Thailand? Malaysia? atau Singapura? Ah, kalau satu sepertinya kurang. Bagaimana kalau ketiganya sekaligus? Sebagai seorang backpaker, rasanya akan kurang lengkap kalau kamu hanya menjejakkan kaki di satu negara saja, apalagi ada negara yang bedekatan dengan akses transportasi yang bisa dibilang cukup mudah dengan harga terjangkau.Menjelajah ke tiga negara itu akan memberikanmu pengalaman yang tak terlupakan terutama kalau kamu mencoba menjelajah dengan cara seorang backpaker yang benar-benar dituntut untuk bertahan hidup selama perjalanan. Kamu bisa coba dengan budget kurang dari 2 jutaan dan sudah bisa bertu-alang di tiga negara tersebut. Awalnya mungkin kamu tidak percaya tapi setelah kamu baca buku ini, kamu pasti akan penasaran untuk segera mencoba. Pokoknya, wajib dimasukan dalam 101 Things to Do Before You Die.</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Travel-Wisata/167515-2-Jutaan-Keliling-Thailand,-Malaysia,-Dan-Singapura:-Backpac.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sehat Dan Bugar Dengan Diet Gm: General Motors | Andra Tersi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Andra Tersiana, Stp,M.Sc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9786237210405</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Healthy</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>April - 2021</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Kesehatan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>28500</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>24225</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/117501_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Diet GM merupakan diet yang digunakan perusahaan general motors. Konon, diet ini berhasil diterapkan pada karyawannya dan dapat menurunkan berat badan 5-8 kg dalam waktu seminggu.Program diet ini berhasil menaikkan derajat kesehatan dan kebugaran manajemen General Motors, sekaligus menaikkan daya saing produk General Motors.Dalam buku ini akan dijelaskan tentang bagaimana melakukan Diet GM yang tepat dilengkapi dengan resep-resep dan tip melakukan Diet GM.</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Kesehatan/167501-Sehat-Dan-Bugar-Dengan-Diet-Gm:-General-Motors-Andra-Tersi.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 33 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9786020892429</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Mei - 2018</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>360 gr</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>34000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/107040_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/157040-RE:ON-COMICS-VOL.-33-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Anggun dengan Hijab Gaun (Full Color)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tim Penerbit</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9786021411568</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MUTIARA ALAMAH</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Januari - 2015</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Busana &amp; Kecantikan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>37800</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>32130</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/81963_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Sekarang ini, banyak sekali model busana cantik dan hijabnya di pasaran. Padupadan gaun dengan hijabnya sangat menarik untuk dilakukan. Gaun yang dipakai dapat memberi kesan anggun dalam setiap penampilan. Kesalahan menggunakan hijab dengan gaun akan membuat Anda salah kostum.Aneka inspirasi gaya berhijab ada dalam buku ini, seperti inspirasi gaya santai, inspirasi gaya formal, inspirasi gaya informal, dan inspirasi gaya pesta. Ciput ninja, kerudung segi empat, dan pashmina merupakan sebagian benda yang harus Anda sediakan sebelum mengkreasikan hijab. Semua inspirasi gaya dalam buku ini dan mudah dipraktikkan. Siap tampil cantik dan elegan? Ayo, praktikkan sekarang juga!</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Busana-&amp;-Kecantikan/131963-Anggun-dengan-Hijab-Gaun.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jurus Jitu Menguasai Copywriting: Strategi Sukses Membangun</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Widya Ariyadi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9786232441224</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Unicorn Publishing</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Agustus - 2020</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>59500</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>50575</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118099_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Hal pertama yang dilakukan oleh pelanggan ketika hendak membeli suatu produk/jasa adalah melihat iklan dan promosinya. Oleh karena itu, Anda harus mengasah skill copywriting agar iklan produk yang Anda tampilkan lebih menarik dan berbeda dengan pesaing lain.Lantas, bagaimana cara membuat copywriting yang menarik dan menjual?Buku ini adalah jawaban atas pertanyaan tersebut. Sebab, penulis akan mengajak Anda untuk memberanikan diri menulis copy yang lebih berkualitas, sehingga pelanggan kian melirik produk Anda. Selain itu, bagaimana tips menulis copy yang baik agar penjualan melampui target juga akan dibahas dalam buku ini. Maka dari itu, bacalah buku ini dan terapkan 101 ide kreatif dan inovatif yang bisa Anda gunakan untuk meningkatkan kemampuan Anda membuat copy yang lebih menarik dan menjual. Sehingga, bisnis menjadi semakin maju dan sukses.</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168099-Jurus-Jitu-Menguasai-Copywriting:-Strategi-Sukses-Membangun.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Seni Mengatur Keuangan: Tips Cerdas Melakukan Perencanaan Ke</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Armadita Ayu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9786232444973</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Quadrant</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Januari - 2020</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>150 gr</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>27500</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>23375</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/117506_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Bagaimana merencanakan keuangan yang benar?Sudah sehatkah keuangan Anda?Bagaimana cara merinci rencana keuangan?Bagaimana si singlemengatur siasat keuangan?Bagaimana merencanakan keuangan keluarga?Apa saja tips-tips berinvestasi?Bagaimana mengenal dan memilih investasi yang tepat dan perlukah asuransi?Bagaimana petunjuk dan trik merencanakan keuangan untuk pemula?</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/167506-Seni-Mengatur-Keuangan:-Tips-Cerdas-Melakukan-Perencanaan-Ke.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 31 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>REONCOMICS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9786020892382</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Maret - 2018</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>34000</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105685_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155685-RE:ON-COMICS-VOL.-31-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Majalah Cinemags Cover Wonder Woman | Edisi 205 - September 2016</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tim Redaksi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Megindo Tunggal Sejahtera</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>September - 2016</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>500 gr</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Film &amp; Musik</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Poster</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>44000</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/96048_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Bonus:  Poster:  - The Girl On the Train - The Magnificent Seven  Bookmark:  - Guardians of the Galaxy II - Morgan - Resident Evil: The Final Chapter - Spider-Man: Homecoming  First Look:   Spider-Man: Homecoming  The Mummy  Guardians of the Galaxy II  Kong: The Skull Island  Baywatch  xXx: Return of the Xander Cage  Saban's Power Rangers  Previews:  Bridget Jones's Baby  Blair Witch  The Light Between Ocean  Sully  Morgan  Deep Water Horizon  Snowden  Cine Screen:  The Magnificent Seven  The Girl On the Train  Slap Clap:  Suicide Squad  Star Trek Beyond  Jason Bourne  Ghostbusters  Bangkit!!  3 Srikandi  IMO: Jodorowsky's Dune  Cine Star: Emily Blunt  Movie Outside:  Elle  Train to Busan  Cutie Honey Tears  League of Gods  Asia Movie Recommendation: Udta Punjab  Tele Cine:  Stranger Things  Ghost Rider Confirmed for 'Agents of S.H.I.E.L.D' Seasons 4  Looking: The Movie (2016)  Check Out Tyler Hoechlin as Superman in 'Supergirl' Shooting Location  Indonesian Movie:  Surat Untukmu  Ini Kisah Tiga Dara  Warkop DKI Reborn: Jangkrik Boss! Part 1  And Many More!!!!</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Film-&amp;-Musik/146048-Majalah-Cinemags-Cover-Wonder-Woman-Edisi-205-September-2016.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 15 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9786020892023</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Agustus - 2016</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105136_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155136-RE:ON-COMICS-VOL.-15-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 18 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9786020892092</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Desember - 2015</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105139_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155139-RE:ON-COMICS-VOL.-18-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 17 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9786020892078</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105138_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155138-RE:ON-COMICS-VOL.-17-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 14 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9786020892016</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Juni - 2016</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105135_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155135-RE:ON-COMICS-VOL.-14-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 13 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9786027066694</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>April - 2015</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105134_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155134-RE:ON-COMICS-VOL.-13-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 24 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>9786020892214</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>November - 2016</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105145_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155145-RE:ON-COMICS-VOL.-24-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 25 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>REONCOMICS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9786020892221</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Februari - 2018</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>29750</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105123_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155123-RE:ON-COMICS-VOL.-25-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 26 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>REONCOMICS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9786020892238</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Februari - 2018</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>29750</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105124_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155124-RE:ON-COMICS-VOL.-26-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 29 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>REONCOMICS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9786020892320</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Februari - 2018</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>29750</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105127_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155127-RE:ON-COMICS-VOL.-29-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Majalah Mix NO 02 Edisi XVI Maret-April 2020</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tim Penerbit</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9772339186304</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Yayasan Sembada Swakarya</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>April - 2020</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>150 gr</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Kesehatan</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>29500</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>25075</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/115698_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Selain menjaga kesehatan pola makanan dan hidup yang sehat, sistem kekebalan tubuh yang baik dapat terwujud apabila terjadi keseimbangan dari konsumsi vitamin dan mineral.yuk check-up kecupukan vitamin dan mineral dalam tubuh anda untuk mencegah berbagai penyakit infeksi!</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Kesehatan/165698-Majalah-Mix-NO-02-Edisi-XVI-Maret-April-2020.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 19 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>9786020892115</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Februari - 2016</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105140_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155140-RE:ON-COMICS-VOL.-19-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 27 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>REONCOMICS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9786020892269</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Februari - 2018</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>29750</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105125_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155125-RE:ON-COMICS-VOL.-27-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 28 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>REONCOMICS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9786020892313</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Februari - 2018</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>29750</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105126_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155126-RE:ON-COMICS-VOL.-28-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 20 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>9786020892122</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>April - 2016</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105141_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155141-RE:ON-COMICS-VOL.-20-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rahasia Sukses Wawancara Kerja</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fajar Nur'aini Dwi Fatimah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9786237115328</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Anak Hebat Indonesia</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Agustus - 2022</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>165 gr</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>14x20mm</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Entrepreneurship</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>42500</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/119302_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>RahasiaSuksesWAWANCARAKERJA    Mengenal Curriculum Vitae (CV)    Jenis Curriculum Vitae (CV)    Tips Membuat CV yang Efektif    Mengenal Psikotes    Mengenal Tipe Pewawancara</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Entrepreneurship/169302-Rahasia-Sukses-Wawancara-Kerja.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Dasar-Dasar HRD &amp; GA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rhea Yustitie</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9786232449114</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Anak Hebat Indonesia</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Agustus - 2022</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>230 gr</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>14x20mm</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>59500</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>50575</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/119310_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/169310-Dasar-Dasar-HRD-&amp;-GA.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 21 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>9786020892153</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Mei - 2016</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105142_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155142-RE:ON-COMICS-VOL.-21-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 23 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>9786020892191</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Mei - 2016</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105144_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155144-RE:ON-COMICS-VOL.-23-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 12 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>9786027066656</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Februari - 2015</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>21250</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105133_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155133-RE:ON-COMICS-VOL.-12-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 11 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>9786027066649</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>21250</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105132_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155132-RE:ON-COMICS-VOL.-11-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Majalah SWA NO 05 Edisi XXXVI 05-18 Maret 2020</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Tim Redaksi</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>9772339185505</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Yayasan Sembada Swakarya</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Maret - 2020</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>150 gr</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>49500</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>42075</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/115506_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/165506-Majalah-SWA-NO-05-Edisi-XXXVI-05-18-Maret-2020.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 22 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>9786020892160</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Agustus - 2016</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>370 gr</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>25500</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105143_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>re:ON Comics adalah majalah kompilasi komik karya komikus Indonesia, yang dikelola secara profesional dengan menampilkan karya terbaik putra - putri Indonesia.</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155143-RE:ON-COMICS-VOL.-22-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kenapa Sih Kita Harus Nabung? : 50 Cara Menabung Yang Benar</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hasna Wijayati</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>9786232444294</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Quadrant</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Desember - 2020</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>39500</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>33575</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118117_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Banyak orang berpikir kalau menabung adalah hal yang rumit dan menyusahkan. Tak sedikit pula yang beranggapan bahwa kegiatan menabung dapat mengurangi kesenangan yang kita alami. Padahal, asumsi seperti ini sama sekali keliru loh. Faktanya, menabung mampu mengantarkan Anda pada gerbang kenikmatan hidup di masa depan yang mengejutkan Anda.Apalagi, menabung tidak harus dilakukan dengan cara-cara klasik yang membosankan dan memberatkan. Ada kok banyak cara lain yang bisa dilakukan agar kegiatan menabung dapat menjadi hal yang seru. Menabung bisa menjadi budaya yang melebur ke dalam kehidupan kita sehari-hari. Nah, gimana sih caranya? Yuk, coba kita gali lebih jauh dengan buku ini. Ada 50 cara menabung yang benar dan kreatif yang pastinya siap Anda praktikkan</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168117-Kenapa-Sih-Kita-Harus-Nabung?-:-50-Cara-Menabung-Yang-Benar.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>How To Influence People Edisi Revisi</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>John C. Maxwell</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>9786020956718</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Maret - 2020</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>240 gr</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Motivasi</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>63750</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/115154_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Anda Mampu Membawa Perubahan!Percaya atau tidsk, cara paling efektif untuk mengubah dunia adalah dengan mengubah manusianya, satu persatu. dan anda akan melakukannya melalui pengaruh.Dalam How to influnce, pakar kepemimpinan john c. maxwell dan rekannya jim dornan mengupas tuntas cara menanamakan pengaruh yang positif dalam diri setiap orang , mulai drai keluarga, rekan kerja, hingga orang asing yanda anda tidak kenal, Hebatnya, anda tidak perlu memegang jabatan pemimpin untuk melakukannya. buku ringkas nan bernas ini akan memampukan anda melakukannya, tanpa harus didukung jabatan atau titel tertentu.</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Motivasi/165154-How-To-Influence-People-Edisi-Revisi.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HOME SCHOOL ING</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DK.WARDHANI - ARIO NUGROHO</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>9786239936921</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>sigi kata</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Mei - 2022</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>265 gr</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>14x20mm</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>79000</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>67150</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118844_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Sebenarnya, apa makna dan tu juanpendidikan bagi anak? Mengapa anak-anakperlu dididik? Apa tujuan kita mendidik anak?dalam buku ini. OK. Wardhani dan ArioNugroho membagi pengalaman mereka dalammencari jawaban dan solusi atas berbagaipertanyaan tentang penduiikan anak yangkerap meresahkan para orangtua.Lebih dari tujuh tahun menjadi praktisipendidikan rumah membuat pasangan inikaya akan pengalaman mendampingianak-anak mereka bertumbuh8uku ini tepat bagi Anda yang ingM tahu lebihbanyak tentang bagaimana cara menjalanipendidikan rumah, pendidikan yang selaras</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Ibu-&amp;-Anak/168844-HOME-SCHOOL-ING.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RE:ON COMICS VOL. 10 PERIODICAL COMICS COMPILATION</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>re:ON</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>9786027066632</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Buku Pintar Indonesia</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Februari - 2018</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>21250</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/105131_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>WACOM GOES TO SCHOOLLETS DRAWDIGITALHalo teman-teman! Ingin Wacom datang ke sekolah kamudan membawakan workshop Digital Drawing?</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/155131-RE:ON-COMICS-VOL.-10-PERIODICAL-COMICS-COMPILATION.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Majalah SWA NO 06 Edisi XXXVI 19 Maret - 1 April 2020</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Tim Redaksi</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>9772339185505</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Yayasan Sembada Swakarya</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Maret - 2020</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>150 gr</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Stok Tersedia. (Siap dikirim dalam 24 jam)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>49500</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>42075</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/115489_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/165489-Majalah-SWA-NO-06-Edisi-XXXVI-19-Maret-1-April-2020.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Pedoman Praktis Menjadi Sales Sukses: Ternyata Menjadi Sales</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Muhammad Syafii Masykur</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>9786232442887</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Quadrant</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Januari - 2021</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>49500</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>42075</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/117516_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Baku ini menyajikan strategi praktis menjadi seorang tenaga penjualan (sales) yang sukses. Pada zaman yang serba cepat ini, peran sales sangat dibutuhkan oleh berbagai sektor bisnis. Sebab, sales merupakan ujung tombak perusahan. Sehingga, berprofesi sebagai fasilitator antara produsen dan konsumen tidaklah mudah. Maka dari itu, buku ini adalah solusi , paling tepat untuk permasalahan tersebut. menjadi seorang sales sukses, Anda mesti menguasai keahlian dalam memprospek calon konsumen, hingga pada akhirnya penjualan Anda meningkat. Selain itu, membangun hubungan baik dan tulus dengan calon konsumen maupun konsumen lama adalah salah satu hal penting bagi seorang sales. Inilah saatnya bagi Anda untuk rndalami dan mengimplementasikan strategi menjadi sales sukses dalam buku ini. Dijamin penjualan bisnis Anda akan semakin meningkat.Salam Sukses!</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/167516-Pedoman-Praktis-Menjadi-Sales-Sukses:-Ternyata-Menjadi-Sales.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Detoks Sehat Dengan Jus</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Desyana Rostika P</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>9786232444935</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Healthy</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Januari - 2020</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>215 gr</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Kesehatan</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>37500</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>31875</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/117504_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Bagi seseorang yang memiliki berat badan lebih tentu menjadi masalah besar karena ia lebih cenderung terjangkit bebagai macam penyakit. Penyakit-penyakit yang sering menghantui adalah penyakit obesitas, jantung, darah tinggi, stroke, dan diabetes. Penyakit-penyakit tersebut memiliki hubungan yang erat kaitannya dengan masalah berat badan yang berlebih. Penyajian buku ini dibagi menjadi beberapa bagian atau dibagi beberapa bab yang meliputi tentang bagaimana menjaga hidup sehat dengan rajin berolahraga, menjaga pola makan dan asupan gizi, bagaimana menjaga berat badan supaya tetap stabil dengan memerhatikan sumber makanan, mengonsumsi buah dan gaya hidup, serta segala hal tentang manFaat buah, macam-macam buah yang baik untuk diet, didukung dengan resep-resep membuat jus khusus untuk diet yang istimewa.</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Kesehatan/167504-Detoks-Sehat-Dengan-Jus.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Seri Keluarga Super Irit 25 : Jagoan Hidup Hemat baru input</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Lee Bong-gi</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>9786024554989</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Bhuana Ilmu Populer</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Mei - 2018</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>370 gr</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>18x24mm</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>99000</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/119611_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Ada suatu peribahasa, besar pasak daripada tiang. Peribahasa ini memiliki makna lebih besar pengeluaran daripada penghasilan. Agar tidak terjadi kondisi seperti peribahasa tersebut, kita harus pintar mengelola uang. Para orang tua, bisa menggunakan buku ini sebagai langkah awal mengedukasi anak tentang pengelolaan uang. Seri Keluarga Super Irit merupakan buku, dengan genre komik, yang berusaha mengangkat tema prinsip ekonomi dalam kehidupan sehari-hari. Buku ini semakin menarik karena tips dan trik Keluarga Super Irit banyak yang bisa diaplikasikan dalam kehidupan sehari-hari kita.Buku Keluarga Super Irit ini sudah mencapai volume 36 dan masih akan terus terbit. Keluarga Super Irit 36 akan segera hadir dengan tips dan trik berhemat lainnya. Tentu saja berguna bagi kita dan bisa diaplikasikan dalam kehidupan sehari-hari kita. Bersama Keluarga Super Irit, berhemat akan menyenangkan. Orangtua bisa mengajarkan berhemat pada anak sejak dini dan dengan cara yang tepat serta menyenangkan.Sinopsis Edisi 25:Air mati di rumah keluarga kontrakan Bindae. Mama si ibu super irit pun memerintahkan agar seluruh anggota keluarga menghemat persediaan air, mulai dari cuci muka sekeluarga dengan air sebaskom, menyiram toilet dengan air bekas, sampai disuruh buang air di toko dekat rumah dan mandi di sekolah! Tapi seperti biasa, Deolong si biang onar mengacaukan rencana Mama. Bagaimana mereka menghadapi krisis air? Baca seru dan kocaknya kisah keluarga Bindae di Keluarga Super Irit 25 Edisi Spesial: Jagoan Hidup Hemat!</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/169611-Seri-Keluarga-Super-Irit-25-:-Jagoan-Hidup-Hemat-baru-input.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Why? People - Vincent van Gogh</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yearimdang</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>9786230031533</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Maret - 2022</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>450 gr</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>18x24mm</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>99000</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/119595_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Siapa yang tidak kenal dengan Vincent van Gogh? Karya-karyanya sangat populer dan dicintai oleh orang-orang dari segala penjuru dunia. Lukisannya yang diberi nama The Starry Night, mampu memukau siapapun yang melihatnya. Namun, tahukah kalian bahwa lukisan itu dibuat oleh Vincent van Gogh saat sedang berada di rumah sakit jiwa? Saat membuat lukisan itu, Vincent van Gogh sedang terkurung di bangsal rumah sakit jiwa dan melukis hanya melalui ingatannya tentang langit malam di luar bangsal.Vincent van Gogh dikenal sebagai pelukis miskin karena hanya berhasil menjual satu buah lukisan selama masa hidupnya. Vincent van Gogh telah melalui berbagai macam rintangan selama masa hidupnya. Dia menganggap dirinya gagal karena tidak berhasil memenuhi ekspektasi orang tuanya. Tujuan hidupnya pun tidak jelas karena pendiriannya terkadang goyah. Dia pernah ingin menjadi seorang pendeta, tapi karena tidak lulus ujian, dia pun menjadi misionaris. Saat bekerja sebagai misionaris pun dia mendapatkan banyak kritik dari misionaris lainnya karena sifatnya yang keras kepala. Akhirnya, dia memutuskan untuk menjadi pelukis di usia yang sudah cukup tua atas saran dari adiknya, Theo.Seperti seri Why? People lainnya, buku ini membahas secara rinci seluruh perjalanan Vincent van Gogh selama masa hidupnya. Selain itu, buku ini juga membahas makna karya-karyanya dan latar belakang saat dia membuat karya tersebut.Buku ini disajikan dalam bentuk komik dengan cerita yang menarik, sehingga kita dibawa untuk mengikuti kisah hidup Vincent van Gogh secara lebih mendalam. Perjalanan hidup tokoh-tokoh terkenal di dunia dapat memberikan inspirasi bagi anak-anak untuk menjadikan tokoh tersebut panutannya dan membuat mereka belajar untuk tidak pernah menyerah dalam menggapai cita-citanya.</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/169595-Why?-People-Vincent-van-Gogh.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Educomics Keluarga Super Irit 39: Hemat Itu Ada Seninya</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>STORYBOX</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>9786230410581</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Bhuana Ilmu Populer</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Desember - 2022</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>465 gr</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>18x24mm</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>125000</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>112500</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/119575_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Mama pergi berlibur dengan adik ipar. Sogeum pun sedang mengikuti acara dan menginap di luar selama beberapa hari. Papa, Kakek, dan Deollong yakin mereka mampu mengurus dan membereskan rumah tanpa mama dan Sogeum. Namun, melakukan pekerjaan rumah tangga ternyata sangat sulit. Tentunya malas sekali melakukan beres-beres itu. Ternyata, hari ini kepulangan Mama. Mereka harus segera membereskan rumah yang sangat berantakan. Untung ada Soegum yang sudah pulang terlebih dahulu. Sogeum tentunya selalu banyak tip dan trik dalam hal bersih-bersih. Mencuci alat makan dan peralatan dapur ada urutannya, lho. Demikian juga mencuci baju, ada trik agar baju berwarna putih tidak terkena noda luntur. Yuk, ikuti keseruan Keluarga Bindae! Jangan lupa untuk selalu mengingat tip dan trik berhemat dari Keluarga Super Irit! Keluarga Super Irit merupakan seri laris yang sudah terbit dari volume 1 hingga sekarang volume 39. Selain ceritanya kocak dna diperuntukan bagi anak-anak, tetapi tip dan triknya dalam berhemat tentunya berguna bagi para orangtua! Ayo, koleksi semuanya!</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/169575-Educomics-Keluarga-Super-Irit-39:-Hemat-Itu-Ada-Seninya.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Educomics X-Venture Xplorers : Perang Penguasa Laut Hiu VS Ikan Todak</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Slaium &amp; meng</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>9786232162693</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Bhuana Ilmu Populer</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Juni - 2019</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>14x21mm</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>115000</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>103500</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/119462_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Liburan menyenangkan ke Atlantik berubah menjadi misi penyelidikan kasus serangan hiu maut! Saat menjalani misi, Jake dan kawan-kawan bertemu dengan ikan todak. Kapal selam mereka diserang berkali-kali dan kapal itu tenggelam! Ikuti perjalanan Jake dan kawan-kawannya dan rasakan dunia bawah laut!</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/169462-Educomics-X-Venture-Xplorers-:-Perang-Penguasa-Laut-Hiu-VS-Ikan-Todak.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Patriot Cilik : Ayo, Mewarnai!</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Bumilangit Comic Media/Andy Wijaya</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>9786024809737</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Januari - 2020</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>150 gr</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>23x23mm</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Anak-Anak</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>27000</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/119461_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Mewarnai Patriot Cilik, yuk! Kamu bisa bikin cerita kamu sendiri, lho! Pilih warna yang kamu suka dan warnai di halaman yang kamu mau. Buat jagoanmu beraksi!Komik ini Mengisahkan para jagoan kecil seperti Tira sebagai si gadis kecil yang Gesit, Putrago, sebagai putra yang jenius, Lolo, banyak yg menyebutnya sebagai bayi supersonic, Dan ada karakter anak bandel bernama Ztulos yang terkenal dengan panggilan bocah Atlantis. Bagaimana petualngan seru mereka ?</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Anak-Anak/169461-Patriot-Cilik-:-Ayo,-Mewarnai!.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Little Princess Series - Caraku Mewujudkan Impian</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>WINFORTUNE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>9786230026225</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Mei - 2021</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>18x24mm</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/119460_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Renacana mewujudkan impian dimulai! Wanginya biskuit dan kue buatan tangan membuatku ingin menjadi pastry chef. Demi mewujudkan impian itu, aku harus hemat dan mulai menabung. Suatu hari, muncul seorang peri yang sangat ahli dalam bidang keuangan. Dia senang membantu orang lain untuk berhemat dan menabung. Ikuti cerita persahabatanku dan teman-temanku dalam mengatur keungan untuk mewujudkan impian!</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/169460-Little-Princess-Series-Caraku-Mewujudkan-Impian.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ada Alien Di Luar Angkasa?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TIM KOK BISA, Tim Kok Bisa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>9786230024344</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Maret - 2021</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Soft Cover</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>18x24mm</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Animasi &amp; Komik</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>85000</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>76500</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/119450_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Buku ini akan menjawab pertanyaan paling besar yang ada di benak kita: Apakah kita hanya sendirian di luasnya semesta? Lewat buku ini kita akan menjelajahi tanda-tanda kehidupan di luar Bumi, sampai usaha-usaha manusia untuk menemukannya. Mari kita mulai perjalanannya. - Berisi fakta-fakta menakjubkan tentang sains - Dilengkapi dengan ilustrasi unik - Dibuat oleh tim di balik media edukasi terbesar se-Indonesia, Kok Bisa</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Animasi-&amp;-Komik/169450-Ada-Alien-Di-Luar-Angkasa?.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Online Business Golden Book</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Ery Prasetyawan</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>9786230034534</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Juli - 2022</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>67500</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118981_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Sebanyak 95% bisnis online mengalami kegagalan dalam 5 tahun pertama beroperasi. Hal ini disebabkan karena beberapa hal, namun yang paling sering terjadi adalah karena kesalahan berikut: 1. Kurang memahami market formula. 2. Menawarkan terlalu banyak produk saat baru memulai. 3. Ide dan penawaran yang kurang atau bahkan TIDAK menarik untuk dibeli. 4. Tidak tersedianya fasilitas transaksi e-commerce yang menimbulkan hambatan dan penolakan calon pembeli. Buku ini ditulis dengan tujuan untuk memberikan solusi pada kesalahan-kesalahan tersebut. Dimulai dari permasalahan market formula seperti bagaimana cara memahami pangsa pasar, pembagian setiap pangsa pasar, dan kondisi psikologis calon pembeli. Lalu dijelaskan juga tentang bagaimana cara memiliki produk yang tidak mudah ditiru sehingga produk Anda memiliki kekuatan pendobrak pasar yang powerful (blockbuster). Penawaran yang menarik ibarat ujung mata anak panah. Jika ujung anak panah tumpul, tentu hasil yang didapatkan tidak akan maksimal. Dalam bisnis online, penawaran Anda adalah ujung mata anak panah Anda. Buku ini akan membantu Anda memiliki penawaran yang sangat tajam sehingga dapat berhasil secara efektif. Anda mungkin sudah memaksimalkan semua hal di atas namun tetap mengalami penolakan dari calon pembeli. Penolakan atau hambatan ini berasal dari 2 sumber, yaitu psikologi dan sistem. Lalu bagaimana cara kita menghilangkan atau paling tidak mengurangi hambatan tersebut? Psikologi apa yang harus dipahami dan sistem minimum apa yang harus dimiliki? Temukan solusinya dalam buku ini!</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168981-Online-Business-Golden-Book.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Inklusi Keuangan untuk Kemakmuran Bangsa</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Syahrir Ika, Djoko Hendratto, Lokot Zein Nasution</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>9786020660424</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Gramedia Pustaka Utama</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Juni - 2022</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>3965 gr</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>295000</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>265500</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118949_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Sebagai negara yang memiliki kapasitas perekonomian yang tinggi, Indonesiasecara teoretis mempunyai peluang yang besar untuk meningkatkan kesejahteraan penduduknya. Namun, kenyataannya kapasitas perekonomian itu hanya dinikmati oleh sebagian kecil penduduk, dalam arti pendapatan masyarakat belum merata dan manfaat pembangunan belum dirasakan oleh seluruh masyarakat. Ketimpangan pendapatan masyarakat merupakan tantangan yang masih dihadapi oleh Indonesia saat ini.Selain instrumen kebijakan fiskal, salah satu solusi nonkonvesional untuk mengurai akar masalah ketimpangan adalah melalui akselerasi inklusi keuangan (financial inclusion). Semakin luas akses rumahtangga dan pelaku usaha ke lembagajasa keuangan formal, semakin besar kemampuan mereka untuk membiayai konsumsi daninvestasi, yang pada akhirnya meningkatkan aktivitas ekonomi secara makro. Hal ini didasari oleh pemikiran bahwa masih banyak masyarakat yang belum memiliki pengetahuan dan kemampuan untuk mengakses produk dan jasa layanan keuangan formal, baik bank maupun nonbank.Para penulis mengkaji berbagai strategi untuk mengakselerasi kinerja inklusi keuangan dan menciptakan kondisi ideal keuangan inklusif demi mencapai tingkat kemakmuran yang berkelanjutan. Mereka juga menganalisis masalah strategis lain untuk mencapai target inklusi keuangan, seperti peran koperasi, tata kelola hubungan BI dan OJK, edukasi dan literasi keuangan, serta implementasi inklusi keuangan dalam program perlindungan sosial. Beragam gagasan dan konsep yang dihadirkan dalam buku ini memberikan jawaban atas berbagai tantangan dalam pengelolaan ekonomi, fiskal, dan sektor keuangan negara sekaligus menghasilkan rekomendasi kebijakan yang kredibel dan dapat diimplementasikan.</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168949-Inklusi-Keuangan-untuk-Kemakmuran-Bangsa.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Cuan Trading Pakai Fibonacci</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Catherine Wiliam</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>9786230033551</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Juni - 2022</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>88000</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>79200</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118902_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Kondisi Buku : Segel (Baru), Original 100% (Garansi Anti Bajakan)Fakta Trading pertama kali terbentuk dari akun Instagram @FaktaTrading pada akhir tahun 2019. Berbekal pengalaman lebih dari 13 tahun di pasar modal dengan metode swing trading, Fakta Trading hadir untuk mengedukasi masyarakat yang ingin belajar trading/investasi di pasar modal. Fibonacci Retracement adalah salah satu tools yang digunakan oleh para trader secara international. Dengan Fibonacci, kita bisa membuat satu complete trading plan, mulai dari menentukan level beli, take profit, dan stop loss. Buku ini menjelaskan secara detail tentang bagaimana cara menyusun satu trading plan yang lengkap dengan menggunakan Fibonacci. Jika kamu sedang membaca buku ini, maka sangat mungkin kamu adalah seorang yang optimis, mau belajar, dan tentunya mau profit melalui trading di pasar saham, crypto, ataupun forex. Untuk bisa menang dalam suatu pertandingan, tentunya seseorang perlu mempunyai strategi. Demikian juga dalam dunia trading. Untuk profit konsisten, seorang trader harus mempunyai strategi trading, manajemen risiko yang baik, dan tentunya mindset yang benar. Selamat berinvestasi ilmu untuk diri sendiri. Salam profit!</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168902-Cuan-Trading-Pakai-Fibonacci.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>An Invitation To Tml (Theocentric Motivation And Leadership)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Eloy Zalukhu</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>9786020650999</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Gramedia Pustaka Utama</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>April - 2021</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>500 gr</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>135000</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>121500</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/117526_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Eloy dikenal sebagai Founder and Master Teacher of Theocentric Motivation and Lead-ership, NLP Licensed Practitioner, Team Align-ment Factlitator, Sales Training Expert, dan Organizational Culture Consultant. Sejak 2005, ia telah melatih ratusan ribu orang di ratusan perusahaan di berbagai wilayah In-donesia. la juga pernah diundang berbicara di beberapa kota di Asia, seperti Singapura, Kuala Lumpur, Bangkok, dan Hong Kong. Oleh pertolongan Tuhan, semangat kerja, dan spirit pantang menyerah, pada 2001, ia berhasil meraih gelar sarjana dalam bidang Marketing and Management di Deakin University, Mel-bourne, Australia. Kemudian, ia menyelesaikan program MBA di IPMI Business School dengan tesis Improving Organizational Performance Using Balanced Scorecard.la telah berhasil menulis tiga buku bestseller yang diterbitkan oleh Gramedia Pustaka Uta-ma (GPU) dengan judul Life Success Triangle, Sales Warrior Using RAVE Sales Principles, dan rmA Leader: Turning Good Managers Into Great Leaders. Kisah hidupnya telah diliput oleh berbagai media hingga dibukukan dalam bentuk novel true storyyang ditulis oleh penu-lis ternama, Alberthiene Endah. Eloy adalah Director dari CAPSTONE Asia Servitama yang berfokus dala m memba-ngun budaya organisasi dan pengembangan kepemimpinan melalui tiga layanan, yaitu training, coaching, dan consulting. la juga mendirikan CSA (Capstone Soft-skills Aca-demy)yaitu lembaga kursus dan pelatihan un-tuk mengembangkan Sumber Daya Manusia (SDM) khusus Usaha Kecil Menengah (UKM Indonesia), didukung oleh Micro-Learning atau Digital Learning. Saat ini, ia tinggal di Jakarta bersama istri dan sepasang putra-putri. Buku iniyang ditulis untuk semua generasiberisi prinsip serta teknik untuk meraih kesuksesan dan kebahagiaan sejati yang tidak lekang oleh waktu, supaya kita tidak hanya mampu bertahan di tengah arus perubahan, disrupsi, dan krisis multidimensi, tetapi juga untuk bertumbuh menjadi 10X lebih tangguh. Apakah Anda ingin mengetahui tujuan hidup dan potensi terbaik Anda? Apakah Anda ingin menjadi influencer, agen perubahan, dan pemimpin terbaik di bidang yang Anda tekuni? Apakah Anda merasa buntu dengan berbagai konsep pengajaran motivasi atau psikologi popular sehingga membutuhkan peta hidup untuk meraih kesuksesan dan kebahagiaan sejati yang lebih utuh? Apakah Anda merasa memiliki pemahaman spiritual yang baik dan terus berusaha menjalani hidup sesuai dengan prinsip tersebut, tetapi dari sisi karier atau bisnis, merasa stagnan dan menginginkan terobosan baru? Jika Anda menjawab -ya- terhadap salah satu pertanyaan di atas, buku ini ditulis untuk Anda. Baca dan praktikkanlah. Kami mengundang Anda untuk bergabung dalam TML Community, sebuah komunitas untuk meraih hasil terbaik dalam karier, bisnis, dan keluarga. Silakan follow Instagram Idtmlcommunity dan subscribe kanal YouTube TML Community.</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/167526-An-Invitation-To-Tml.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>The Dividend Investor</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Jefferly Helianthusonfri</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>9786230031991</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>April - 2022</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>63000</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118866_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Selain mengandalkan capital gain, seorang investor saham juga bisa meraih untung besar dari dividen. Walau mungkin terlihat tak seberapa, namun dividen saham punya potensi yang besar. Apalagi jika dividend investing diterapkan dengan baik dan efektif. Cuan besar bisa saja menanti investor, tanpa ia harus repot-repot melepas sahamnya. Buku ini adalah buku panduan lengkap untuk belajar dividend investing. Bagi Anda yang ingin memulai belajar investasi saham dan membangun passive income dari dividen, buku ini adalah panduan yang lengkap dan tepat. Inilah berbagai hal menarik yang dibahas di dalamnya: ● Daya tarik dan potensi dahsyat dari investasi saham dividen bagus. ● Cara dan panduan lengkap menemukan saham-saham dividen terbaik. ● Cara, tip, dan strategi mempelajari fundamental saham. ● Cara mempelajari kinerja dan laporan keuangan perusahaan untuk menemukan saham yang bagus. ● Aplikasi dan tools terbaik untuk membantu investor berinvestasi saham. ● Cara mudah menghitung valuasi saham untuk pemula. ● Cara, tip, dan strategi menyusun portofolio saham. ● Tip mendapatkan untung dari dividen dan capital gain. Mulailah berinvestasi saham dan gapai tujuan keuangan Anda. Happy investing!</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168866-The-Dividend-Investor.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TULISLAH! Mengembangkan Proses Kreatif Menulis Berita . Feature . Fiksi</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Pepih Nugraha</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>9786230032196</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>April - 2022</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>67500</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118761_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>lebih luas dan inovatif. Membahas proses kreatif menulis berita, proses kreatif menulis feature, proses kreatif menulis fiksi, dan proses kreatif menulis buku. Disampaikan dengan gaya bertutur, konten buku ini merupakan pengalaman puluhan tahun penulis berkecimpung di dunia jurnalistik dan kepenulisan. Pembaca niscaya seperti dibawa masuk ke sebuah dialog interaktif dengan penulis, sehingga lebih termotivasi dan terisnpirasi untuk menulis dengan metode yang khas dan berbeda dari yang pernah ada. Buku Tulislah! ini dipersembahkan untuk umum, untuk siapa saja yang berniat mengembangkan karier di bidang tulis-menulis, dari menulis artikel, berita peristiwa, kajian berbentuk buku, bahkan fiksi berupa novel. Selain itu, buku ini bisa juga menjadi buku ajar (text-book) untuk kalangan pelajar dan mahasiswa. Dan yang terutama, memulainya dengan tulislah. Disampaikan dengan gaya bertutur, konten buku ini merupakan pengalaman puluhan tahun penulis berkecimpung di dunia jurnalistik dan kepenulisan. Pepih Nugraha bekerja di Harian Kompas selama 26 tahun (19902016) sebagai pustakawan, peneliti, kemudian wartawan. Selama berkarier sebagai jurnalis, ia menulis berita dan feature sebanyak 4.400, beberapa di antaranya tulisan sosok sejumlah orang, dari yang ternama sampai yang tidak punya nama. Saat ditugaskan di Kompas.com, ia mendirikan Kompasiana yang merupakan blog terbesar di Indonesia.</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168761-TULISLAH!-Mengembangkan-Proses-Kreatif-Menulis-Berita-.-Feature-.-Fiksi.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Kendalikan Uangmu: Yuk, Jadi Financial Planner untuk Diri Sendiri!</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>FinGram Indonesia</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9786230032653</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>April - 2022</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>120 gr</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>54000</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118759_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>If you cant control your emotions, you cant control your money. Warren Buffet Rasanya di zaman sekarang ini hampir tidak mungkin bagi kita untuk hidup tanpa uang. Makan, minum, rumah, pakaian, kendaraan, hiburan, semua butuh uang. Ketika seseorang kehabisan uang, maka kemungkinan besar hidupnya akan bergantung pada orang lain, entah itu keluarga, tetangga, atau negara. Bahkan orang yang sudah memiliki cukup yang, juga bisa merasa tidak cukup. Gairah untuk terus mencoba sesuatu yang baru dan berulang semakin menggerus uang. Akhirnya masa depan dikorbankan. Keuangan yang buruk disebabkan pengambilan keputusan yang salah yang didasarkan kurangnya kontrol diri dan pengetahuan keuangan. Buku ini hadir untuk memberikan pencerahan tentang bagaimana seharusnya kita berpikir, merasa, dan bertindak terhadap uang, sehingga di mana pun dan kapan pun kita bisa mengendalikannya. Buku ini terdiri dari 8 bab yang ditulis oleh 7 Certified Financial Planner dan Financial Content Creator. Mulai dari pola pikir keuangan sampai investasi, dibahas tuntas di sini. Dengan pengetahuan yang bertambah, akan lebih banyak pilihan untuk mengambil keputusan keuangan. Selamat membaca dan bertindak!</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168759-Kendalikan-Uangmu:-Yuk,-Jadi-Financial-Planner-untuk-Diri-Sendiri!.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>How to be a Taipan - New Edition</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>WILLIAM WIN YANG</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>9786230032455</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>April - 2022</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>72000</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118757_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Bagaimana seseorang bisa menjadi Taipan (konglomerat)? Katanya: Orang sukses itu harus fokus dan jangan banyak maunya. Kenyataannya: Pernahkah Anda melihat Taipan yang mengandalkan satu bisnis saja sebagai kendaraan sukses mereka? Berikan satu ide bisnis yang menguntungkan pada mereka, dan hampir dapat dipastikan mereka akan menyergapnya. Dari tambang batu bara, kelapa sawit, bisnis sepatu, bahkan peniti yang tidak ada hubungannya sama sekali. Seringkali, karena banyaknya bisnis yang mereka miliki, mereka malah tidak tahu kalau perusahaan itu milik mereka. Katanya: Orang sukses itu tidak bekerja demi uang, mereka bekerja demi membuat perubahan. Kenyataannya: Apakah Anda pernah bertemu Taipan yang terjun ke bisnis yang tidak ada uangnya? Percayalah, mereka tidak akan mau. Bahkan memikirkannya saja tidak! Katanya: Orang sukses itu harus mampu mendelegasikan kekuasaannya. Jika tidak, orang itu tidak mungkin bisa besar. Kenyataannya: Ini benar bagi sebagian Taipan, tapi banyak juga yang masih mengatur bisnis raksasa mereka yang nilainya miliaran dollar. Saya pernah bertemu seorang Taipan yang masih tidak mempercayai karyawannya untuk mengeluarkan uang lebih dari 50 juta rupiah, walaupun jabatan sang karyawan adalah CEO. Sang Taipan menandatangani cek-cek yang jumlahnya ratusan dan memeriksanya satu per satu seperti seorang kasir. Begitu banyak resep sukses yang dilanggar para Taipan, tapi pada kenyataannya mereka adalah Taipan yang kekayaannya ratusan bahkan ribuan kali dari orang-orang yang mengaku sebagai guru sukses. Jika begini, siapa yang benar? Apakah yang selama ini kita yakini sebagai resep sukses adalah salah? Inikah sebabnya sulit sekali bagi kebanyakan orang untuk mencapai kesuksesan finansial walaupun sudah menjalankan semua resep sukses yang disarankan?Ringkas DeskripsiDetail</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168757-How-to-be-a-Taipan-New-Edition.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>The Tao of Bandarmology (New edition)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>William Hartanto</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>9786020450568</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>April - 2022</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>85000</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>76500</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118748_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Ada dua teknik menganalisis saham yang cukup populer dan sering digunakan para pelaku pasar, yaitu analisis teknikal dan analisis fundamental. Keduanya memiliki keunggulan dan kekurangan baik untuk jangka panjang maupun jangka pendek. Sekarang ada analisis baru yang tidak kalah populer, yaitu analisis berdasarkan pelaku pasar dengan dana besar yang ...</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168748-The-Tao-of-Bandarmology.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mukjizat Enzim : Cara Hidup Agar Tidak Jatuh Sakit</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hiromi Shinya, MD</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Gramedia Pustaka Utama</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>November - 2021</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Kesehatan</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>73000</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>65700</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118734_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Tetap awet muda sampai kapan pun adalah impian semua orang, baik pria maupun wanita. Cara-cara menjadi muda kembali yang dianjurkan buku ini sama sekali tidak memerlukan operasi plastik, obat-obatan, ataupun alat-alat kecantikan. Karena, di dunia ini tidak ada orang yang tampak lebih muda daripada usia sebenarnya. Yang ada hanyalah orang yang sesuai dengan usia sebenarnya, dan orang yang kelihatan lebih tua daripada usia sebenarnya.Hal-hal penting yang akan Anda ketahui dari buku ini:1. Jika kesehatan usus terganggu, kesehatan seluruh tubuh ikut terganggu.2. Tubuh kita terlahir kembali dengan cara regenerasi sedikit demi sedikit setiap hari dengan bahan baku yang masuk lewat mulut.3. Makanan nabati membuat kulit lembut, makanan hewani membuat kulit kasar.4. Segelas minuman alkohol bisa membuat Anda terlihat lebih tua.5. Kekurangan konsumsi air dapat menyebabkan terjadinya kanker.6. Kafein pada kopi ternyata mempercepat penuaan.7. Kopi, teh, dan jus buah tidak dapat menggantikan air sebagai cairan yang dibutuhkan tubuh.8. Tidur siang 20 menit sangat baik untuk memulihkan enzim.9. Cara paling mujarab untuk muda kembali: hubungan suami-istri yang dilandasi cinta.</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Kesehatan/168734-Mukjizat-Enzim-:-Cara-Hidup-Agar-Tidak-Jatuh-Sakit.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Kesalahan-Kesalahan Investor Saham Pemula</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Raymond Budiman</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>9786230031786</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Maret - 2022</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>78000</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>70200</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118725_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Belajar dari kesalahan tentu merupakan salah satu cara untuk meningkatkan kemampuan. Tidak hanya dari kesalahan sendiri, kita pun dapat belajar dari kesalahan orang lain sehingga kita tidak perlu terjatuh pada lubang yang sama. Kita semua pernah memulai investasi saham sebagai pemula, membuat kesalahan-kesalahan, dan seiring berjalannya waktu semakin memperbaiki diri serta strategi investasi. Setelah bergelut di industri pasar modal selama bertahun-tahun, ternyata dapat disimpulkan bahwa investor saham pemula cenderung melakukan kesalahan yang sama dari waktu ke waktu. Oleh karena itu, buku ini mencoba merangkum kesalahan-kesalahan yang sering dilakukan oleh investor saham pemula, sehingga Anda dapat terhindar dari kesalahan tersebut dan tidak perlu terjatuh pada lubang yang sama.</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168725-Kesalahan-Kesalahan-Investor-Saham-Pemula.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>New to Big</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>David Kidder, Christina Wallace</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>9786230031465</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Maret - 2022</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>81000</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118705_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Banyak dari perusahaan mapan yang menghadapi tantangan untuk tetap bertahan hidup di era penuh perubahan ini. Pemetaan pasar, efisiensi operasional perusahaan, serta birokrasi yang konvensional dan ketinggalan zaman, sering kali menjadi hambatan utama untuk melihat potensi dan mengembangkan bisnis baru. Sedangkan di luar sana, perang inovasi dan pertumbuhan baru sedang berlangsung, khususnya oleh startup. Buku ini menyajikan beragam pengetahuan untuk perusahaan mapan, yang didasarkan pada kombinasi penelitian, ilmu pengambilan keputusan, keahlian penasihat, serta pengalaman langsung David Kiddler dan Christina Wallace yang telah bekerja selama bertahun-tahun bersama perusahaan Fortune 500. Buku ini akan memberikan pandangan baru tentang bagaimana berpindah dari dalam ke luar ke dari luar ke dalam terkait pencarian potensi dan pemecahan masalah. Sehingga, perusahaan mapan tetap bisa berjalan dengan kemapanannya, berlari seperti entrepreneur, dan berinvestasi seperti venture capital.</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168705-New-to-Big.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Dinamika Kebijkan Fiskal Pada Masa Pandemi Covid-19</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Abdul Aziz, Bondi Arifin, Ubaidi Socheh Hamidi</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>9786020657103</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Gramedia Pustaka Utama</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Januari - 2022</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>600 gr</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>280000</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>252000</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118478_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>"Pandemi Covid-19 merupakan krisis multidimensi yang penanganannya memerlukan kebijakan yang extraordinarydan kerja keras yang luar biasa. Semua negara di dunia sama-sama belajar menangani krisis multidimensi ini. Tulisan mengenai pengalaman pemerintah Indonesia dalam merespons pandemi Covid-19 dan memulihkan perekonomian sangat diperlukan untuk memperkaya ilmu kebijakan publik ke depannya. Buku ini memaparkan pengalaman pemerintah Indonesia secara ilmiah dan mendetail."Dr. Kunta Wibawa Dasa Nugraha Staf Ahli Menteri Keuangan Bidang Pengeluaran Negara dan Ketua Tim Monev PEN, Kementerian Keuangan RI"Kebijakan publik selalu menjadi topik pembahasan yang sangat menarik karena dam paknya dirasakan langsung oleh masyarakat. Buku ini memudahkan pembaca menyelami latar belakang serta ragam kebijakan fiskal dan program PEN (Pemulihan Ekonomi Nasional) selama periode pandemi karena ditulis langsung oleh tim yang turut merumuskan kebijakan tersebut."Dr. Iskandar Simorangkir, S.E., M.A. Deputi Bidang Koordinasi Ekonomi Makro dan Keuangan, Kementerian Koordinator Bidang Perekonomian"Buku ini menampilkan gagasan segar dan tajam tentang kebijakan fiskal di masa pandemi, khususnya mengenai implementasi program Pemulihan Ekonomi Nasional beserta manfaatnya. Tema yang menarik serta gaya penulisan yang mudah dipahami menjadi nilai lebih buku yang dapat menjadi rujukan bagi semua pihak ini."Prof. Candra Fajri Ananda, Ph.D. Staf Khusus Menteri Keuangan Bidang Perumusan Kebijakan Fiskal Regional</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168478-Dinamika-Kebijkan-Fiskal-Pada-Masa-Pandemi-Covid-19.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>The Power of Japanese Candlestick Charts</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Fred KH Tam</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>9786230029776</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Januari - 2022</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>350 gr</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>199000</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>179100</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118464_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Panduan lengkap untuk mendapatkan keuntungan dari teknik candlestick charting. Metode candlestick charting ala Jepang merupakan metode penentuan waktu yang tepat, sangat efektif, dan telah teruji selama ratusan tahun untuk mengetahui kapan harus masuk ke pasar atau keluar dari pasar tersebut. Melalui contoh yang diambil langsung dari chart dari perusahaan internasional ternama, valuta asing, dan komoditas berharga lainnya, penulis terkenal sekaligus pakar futures trading Fred Tam menunjukkan kemampuan prediktif yang dimiliki oleh indikasi candlestick charting serta bagaimana cara menggabungkannya dengan metode analisis teknis ala Barat secara tepat demi memaksimalkan profit Anda di pasar apa pun. Buku The Power of Japanese Candlestick Chart ini mengajak Anda untuk mempelajari sekian banyak keunggulan metode candlestick charting, antara lain:  Indikator utama  Kemampuan untuk menunjukkan indikasi pembalikan lebih awal daripada teknik charting ala Barat.  Visual  Susunan chart dalam bentuk gambar memudahkan trader dalam menemukan indikasi penjualan dan pembelian dalam waktu cepat.  Serba guna  Dapat digunakan secara mandiri atau digabungkan dengan metode analisis teknis ala Barat.  Fleksibel  Dapat digunakan di segala dimensi waktu dan di semua jenis pasar atau sekaligus di beberapa pasar. Candlestick charting merupakan metode yang telah terbukti jitu sebagai alat bantu analisis pasar secara mandiri (stand alone), namun Fred Tam berpendapat bahwa metode akan jauh lebih jitu jika diintegrasikan dengan beberapa analisis tren dan indikator teknis lainnya seperti: Rata-Rata Bergerak, RSI, Momentum, MACD, Stokastik, DMI, CCI, Persen R, Bollinger Bands, dan Teori Elliot Wave. Oleh karena itu, buku The Power of Japanese Candlestick Charts merupakan panduan candlestick charting yang lengkap, penting, dan cocok untuk para analis, trader saham atau harian, dan trader posisi jangka pendek.</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168464-The-Power-of-Japanese-Candlestick-Charts.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Buku Anak Muda Maen Saham Tanpa Perlu Cut Loss</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DR.IR.Herman Surdiatno Soegoto, MBA</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>9786230407475</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Bhuana Ilmu Populer</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Januari - 2022</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>150 gr</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>68000</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>61200</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118444_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Dalam beberapa tahun terakhir, terjadi peningkatan investor dari kalangan milenial secara signifikan, di saat yang bersamaan pula para investor pemula ini banyak yang mengalami cut lossmerugi, karena harga saham yang terkoreksi. Buku Anak Muda Maen Saham Tanpa Takut Cut Loss ditulis oleh seorang akademisi sekaligus praktisi berpengalaman di bidangnya sehingga akan menjadi bekal awal bagi para investor pemula. Di dalamnya terdapat beragam wawasan terkait investasi dan dunia saham, cara mengidentifikasi, dan menghindari emiten dengan kinerja fundamental yang kurang baik, serta cara menghindari kesalahan fatal yang kerap dilakukan oleh investor pemula. Selain itu, Anda juga dapat menemukan pengalaman dan perspektif penulis perihal dunia saham, cara termudah dan efektif dalam menganalisis kinerja fundamental 34 emiten saham terbaik di Indonesia, serta turut mendalami pergerakan harga saham berdasarkan analisis teknikal. Semua pembahasannya itu ditulis dengan bahasa yang mudah dipahami dan dapat menjadi pengantar yang penting untuk milenial yang ingin menjadi investor sukses</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168444-Buku-Anak-Muda-Maen-Saham-Tanpa-Perlu-Cut-Loss.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Smart Financial Kelola Gaji Bisa Investasi Bisnis Properti</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Dr. Hj. Nasta Trilakshmi</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>9786020658100</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Gramedia Pustaka Utama</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Januari - 2022</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>280 gr</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118443_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Mengelola keuangan memang tidaklah mudah bila tak dibiasakan. Banyak orang mengeluh karena mengalami keretakan rumah tangga gara-gara tidak bisa mengelola keuangan dengan baik. Padahal, dengan pengelolaan keuangan yang baik, kehidupan kita tidak hanya tertata dan tenang, tetapi juga bisa memberikan penghasilan baru dan amal jariah baru, seperti yang saya alami saat ini.Saya mulanya tidak menyangka dengan mindset untuk mengatur keuangan yang bersum-ber dari gaji suami bisa mengantarkan saya menjadi gemar berinvestasi di dunia properti, yang membuat saya sekeluarga bisa melakukan perjalanan keliling dunia. Tak hanya itu, dari hasil investasi yang berkembang saya juga bisa berwakaf beberapa rumah dan ruko dan bersama para ustaz mendirikan pesantren Tahfiz. Alhamdulillah... masya Allah. Semoga kisah dan tips yang saya bagikan dalam buku ini bisa memberi manfaat bagi Anda semua.HAL MENARIK DARI BUKU INI:1, Tips dan kisah inspiratif tentang pengelolaan keuangan rumah tangga untuk diarah-kan ke bisnis2. Workbook untuk bisa mengelola uang dan berinvestasi3. E-sertifikat tanda lulus mengisi workbook</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168443-Smart-Financial-Kelola-Gaji-Bisa-Investasi-Bisnis-Properti.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>The Deals of Warren Buffett Volume 2: Pencapaian Fundamental $1 Miliar oleh Buffett</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Glen Arnold</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>9786230029684</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Januari - 2022</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>600 gr</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>125000</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>112500</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118434_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Buku kedua The Deals of Warren Buffett ini melanjutkan kisah perjalanan dan sepak terjang Buffett hingga berhasil mendapatkan satu miliar dolar pertamanya. Buku pertama mengisahkan bagaimana akhirnya dia berhasil mencapai kekayaan sebesar seratus juta dolar. Di bagian menarik berikutnya dalam seri ini, kita di bawa untuk mengikuti perjalanan transaksi investasi Buffett selama dua dekade berikutnya saat dirinya menjadi miliarder. Ini adalah periode yang paling menggembirakan dalam karir Buffett di mana dia menemukan permata demi permata di pasar saham dan di antara perusahaan keluarga yang dikelola dengan ketat dengan waralaba ekonomi yang sangat baik. Pada periode ini, saham Berkshire Hathaway melonjak 29 kali lipat dari $89 menjadi $2.600, sementara Buffett melakukan investasi di perusahaan berikut: GEICO, Buffalo Evening News, Nebraska Furniture Mart, Capital Cities, ABC, Disney, Fechheimer Brothers, Scott and Fetzer, Solomon Brothers, Coca-Cola, Borsheims, Gillette, Procter &amp; Gamble, dan Duracell. Untuk setiap transaksi investasi ini, pakar investasi dan sejarawan Glen Arnold menyelidiki detail yang belum pernah terjadi sebelumnya untuk menganalisis proses investasi dan kisah-kisah individu yang terlibat. Gaya penulisan Arnold yang menarik dan memiliki alur yang jelas membawa pembaca ke waktu dan tempat transaksi, untuk benar-benar mengapresiasi bagaimana cara Buffett bekerja. Dengan cerita dan analisis yang diambil dari pengalaman berinvestasi selama puluhan tahun, bergabunglah dengan Glen Arnold dan pelajari lebih dalam The Deals of Warren Buffett!</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168434-The-Deals-of-Warren-Buffett-Volume-2:-Pencapaian-Fundamental-$1-Miliar-oleh-Buffett.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>COMPETING ON ANALYTICS Berkompetensi dalam Analitik, Ilmu Baru untuk Menang (UPDATED)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Thomas H. Davenport, Jeanne G. Harris</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>9786230029240</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Desember - 2021</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>600 gr</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>135000</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>121500</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118388_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Ketika di dunia ini sebagian besar keunggulan kompetitif dengan basis tradisional telah menguap, bagaimana Anda akan menonjolkan kinerja perusahaan Anda dari yang lain? Gunakan analitik untuk membuat keputusan yang lebih baik dan mengekstrak nilai maksimum dari proses bisnis Anda. Dalam Competing on Analytics: Berkompetisi dalam Analitik, Ilmu Baru untuk Menangupdated, Thomas H. Davenport dan Jeanne G. Harris berpendapat bahwa batasan penggunaan data telah berubah secara dramatis. Perusahaan terkemuka melakukan lebih dari sekadar mengumpulkan dan menyimpan informasi dalam jumlah besar. Mereka sekarang membangun strategi kompetitif di seputar wawasan berbasis data yang, pada gilirannya, menghasilkan hasil bisnis yang mengesankan. Senjata rahasia mereka? Analitik: analisis kuantitatif dan statistik canggih dan pemodelan prediktif yang didukung oleh para pemimpin senior yang paham data dan teknologi informasi yang kuat. Mengapa bersaing di analitik? Pada saat perusahaan di banyak industri menawarkan produk serupa dan menggunakan teknologi serupa, proses bisnis yang khas sangat diperhitungkan. Banyak dasar persaingan sebelumnyaseperti keunggulan geografis atau regulasi protektiftelah terkikis oleh globalisasi. Teknologi eksklusif ditiru dan disalin dengan cepat, dan inovasi terobosan dalam produk atau layanan semakin sulit diraih. Pada akhirnya semua ini menyisakan tiga hal sebagai dasar persaingan: eksekusi yang efisien dan efektif, pengambilan keputusan yang cerdas, dan kemampuan untuk memeras setiap tetes nilai terakhir dari proses bisnissemuanya dapat diperoleh melalui penggunaan analitik yang canggih dan tepat sasaran. Melalui analitik, perusahaan-perusahaan ini mengidentifikasi pelanggan mereka yang paling menguntungkan, mempercepat inovasi produk, mengoptimalkan rantai pasokan dan penetapan harga, serta memanfaatkan pendorong kinerja keuangan yang sebenarnya. Tepat waktu dan sangat dibutuhkan, Competing on Analytics menjadi alat bantu yang jitu untuk menulis ulang kemampuan bersaing Anda untuk menang.</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168388-COMPETING-ON-ANALYTICS-Berkompetensi-dalam-Analitik,-Ilmu-Baru-untuk-Menang.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TTS Ringan Pilihan Kompas Jilid 4</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MOHAMMAD SABAR</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9786232419933</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Kompas</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>April - 2021</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>250 gr</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Olah Raga</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>48400</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118302_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Siapa, sih, yang enggak pemah merasa bosan, apalagi saat pandemi dan harus di rumah terus? Timbulnya rasa bosan atau orang sekarang bilang bikin bete, memang merupakan keadaan emosi yang tidak menyenangkan. Bukan mustahil, kebosanan ini bikin kurang minat dan sulit konsentrasi pada aktivitas tertentu. Nah, salah satu cara mengatasi kebosanan yang disarankan oleh psikolog adalah dengan mempersiapkan beberapa kegiatan untuk mengubah kebiasaan. Apa itu? Ya, mengisi teka-teki silang alias TTS! Mengisi 1TS akan mengubah rasa bosan menjadi kegiatan yang menyenangkan sekaligus menjadi teman saat pandemi. Selamat mengusir kebosanan!+ Kondisi Buku : Segel (Baru), Original 3000% (Garansi Anti Bajakan)+ Untuk Pembelian Dengan Lebih Banyak Diskon &amp; Promo Langsung ke www.bukukita.comInformasi melalui+ Fasilitas "diskusi produk" tokopedia+ SMS / Whatsapp : 0812 8500 0570+ Untuk Etalase Lengkap Klik Link "bukukita" atau "Kunjungi toko" di sebelah kanan</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Olah-Raga/168302-TTS-Ringan-Pilihan-Kompas-Jilid-4.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Buku Serba-serbi Pengasuhan Anak</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Devi Delia</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>9786230028557</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>November - 2021</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>250 gr</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>54000</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118271_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Sebagai orangtua, tentu kita ingin memberikan yang terbaik untuk anak-anak kita. Kita pun akan berusaha memenuhi kebutuhan sehari-hari hingga kebutuhan psikologisnya, termasuk dengan menerapkan pola pengasuhan yang ideal dengan harapan agar anak kita dapat berkembang menjadi anak yang sehat tidak hanya raga namun juga jiwanya. Namun sayang, terkadang kenyataan tidaklah seindah harapan, dan kita sebagai orangtua pun sering kali dibuat kewalahan dengan berbagai perilaku anak. Kompleksitas perilaku anak-anak saat ini pada akhirnya membuat kita sebagai orangtuanya hanya dapat geleng-geleng kepala dan menghela napas panjang, karena merasa tidak berdaya menghadapi perilaku anak-anak tersebut. Berbagai keluhan berkaitan pengasuhan anak pun sering muncul dari klien kami berdua. Tiga topik utama yang menjadi bintangnya adalah permasalahan emosi anak, cara mendisiplinkan anak, ataupun kecanduan gawai. Selanjutnya, lewat diskusi yang kami lakukan, kami menarik kesimpulan bahwa berbagai masalah perilaku tersebut berakar dari kesalahpahaman orangtua atas prinsip dasar pengasuhan yang mereka lakukan. Berangkat dari pemikiran tersebutlah, buku ini dibuat. Kami ingin berbagi mengenai prinsip-prinsip dasar dalam pengasuhan. Kami menyadari bahwa kami sendiri bukan orangtua yang sempurna. Namun berlandaskan pengalaman praktik serta pengetahuan sebagai psikolog klinis yang kami miliki, kami ingin membantu para orangtua supaya lebih dapat mengenali permasalahan perilaku anak-anak mereka. Kami berharap, para orangtua mampu mengetahui bagaimana sebaiknya bersikap dan merespons perilaku-perilaku yang ditampilkan oleh anak-anak mereka.</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Ibu-&amp;-Anak/168271-Buku-Serba-serbi-Pengasuhan-Anak.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Buku IP TO IPO - Petualangan IP Creator Menuju Go Public</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Adi Putera Widjaja</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>9786230028885</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>November - 2021</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>350 gr</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>81000</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118265_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>From IP to IPO membuka wawasan sekaligus menantang para kreator IP (Intellectual Property) untuk menciptakan, mengembangkan, mengalihmediakan, dan memberi nilai (value) pada IP-nya melalui berbagai macam strategi, hingga pada akhirnya mencapai satu valuasi yang tinggi dan mampu menembus lantai bursa serta mengundang investor untuk semakin mengembangkan IP tersebut.</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168265-Buku-IP-TO-IPO-Petualangan-IP-Creator-Menuju-Go-Public.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Buku Trik Cerdas Mendisiplinkan Anak Tanpa Emosi</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DAVID BORGENICHT &amp; JAMES GRACE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>9786230405389</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Bhuana Ilmu Populer</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>November - 2021</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>200 gr</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>88000</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>79200</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118263_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Back Cover Anda kesulitan mendisiplinkan anak? Anak-anak sering berulah di rumah? Tidak ada salahnya Anda mencoba berbagai Tip Cerdik dan Singkat yang ada di dalam buku ini. Buku ini merupakan panduan yang akan memberi Anda perlengkapan dan pengetahuan yang esensial untuk mendisiplinkan anak-anak. Di dalamya berisi semua informasi yang dibutuhkan untuk mengecoh anak Andameyakinkan agar mereka berperilaku seperti yang Anda inginkan kapan pun dan di mana pun. Anda akan mempelajari teknik-teknik klasik, serta pilihan-pilihan yang membuat anak merasa seolah-olah yang memegang kendali, ketika sebenarnya Anda adalah dalangnyadan mengubah aktivitas yang menakutkan menjadi keseruan dan permainan. Anda akan menguasai seni pengalihan dan memperoleh keterampilan pengasuhan yang tidak lekang oleh waktu, serta bisa digunakan untuk membuat anak-anak menuruti kehendak Andatanpa mereka pernah menyadarinya. Ini adalah buku yang akan memberi Anda keterampilan-keterampilan, pengetahuan praktis, dan kecakapan berdasarkan pengalaman untuk mengalahkan anak dalam satu-satunya permainan yang tentu saja mereka lebih baik memainkannya daripada Andamenjadi anak-anak. Mereka memang lebih kecil dari Anda, tetapi, berdasarkan teori, tidak sepintar Anda. Anda adalah orang dewasanya. Jadi, apa pun perintah Anda, ya harus dipatuhi, tidak peduli apa pun yang terjadi, bukan?</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Ibu-&amp;-Anak/168263-Buku-Trik-Cerdas-Mendisiplinkan-Anak-Tanpa-Emosi.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Buku Investing In Digital Start-Up - Unicorn Edition</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>WILLIAM WIN YANG</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>9786230028793</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Oktober - 2021</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>85000</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>76500</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118255_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Buku ini menjawab pertanyaan: 1. Bagaimana cara kerja dunia 4.0 sesungguhnya? 2. Logika di balik bisnis bakar-bakar duit 3. Ujung perjalanan dari Digital Enterprise (apa yang mereka cari) 4. Kenapa start-up tanpa aset nyata dan masih merugi nilainya bisa puluhan bahkan ratusan miliar dolar? Bahkan sampai diperebutkan? 5. Bagaimana menganalisis konsep digital start-up yang potensial dengan 1-2 halaman saja? 6. Bagaimana hitungan ROI-nya dari bisnis bakar-bakar duit? 7. Bagaimana berurusan dengan milenial dengan segala tingkah polahnya? 8. Dari mana asalnya dana triliunan dolar yang difoya-foyakan itu? Dan mengalir ke mana saja? Dalam edisi baru bertema UNICORN Edition yang mendapat update besar-besaran ini, pembaca akan diajak menyelami lebih dalam ke dana triliunan dolar yang berputar di dunia teknologi, dan kemungkinan untuk mengambil bagian di dalamnya. Wajib dibaca oleh: pelaku start-up digital, investor, dan regulator.</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168255-Buku-Investing-In-Digital-Start-Up-Unicorn-Edition.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Political Risk</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CONDOLEEZZA RICE &amp; AMY B. ZEGART</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>9786020653525</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Gramedia Pustaka Utama</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Juli - 2021</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>500 gr</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>155000</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>139500</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118243_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Dunia berubah dengan cepat. Risiko politikkemungkinan bahwa aksi yang bersifat politis bisa berdampak signifikan terhadap bisnis dan perusahaanmemengaruhi bisnis melalui cara yang jauh lebih bervariasi daripada sebelumnya. Pada masa lalu, sebagian besar risiko politik berkaitan dengan sejumlah kecil industri yang berhubungan dengan pemerintah dalam pasar-pasar tertentu. Hari ini, risiko politik ditimbulkan oleh pelaku yang lebih beragam, termasuk pengguna Twitter, pejabat lokal, aktivis, teroris, dan peretas. Lembaga dan hukum yang diharapkan mengurangi ketidakpastian bisnis sering kali malah menimbulkan efek yang sebaliknya. Dalam globalisasi sekarang ini, tidak ada pilihan yang "aman".Political Risk mengkaji lanskap yang terus berubah, menganalisis apa yang bisa dilakukan oleh perusahaan untuk menyiasatinya, dan memaparkan cara kita menghadapi dinamika politik global yang bergerak sangat cepat ini. Dengan menarik pelajaran dari keberhasilan dan kegagalan perusahaan-perusahaan dari berbagai industri, buku ini mengemukakan kerangka kerja yang bisa diaplikasikan oleh organisasi apa pun, dari usaha rintisan sampai perusahaan berperingkat Fortune 500.Organisasi yang melakukan pendekatan serius dan sistematis terhadap manajemen risiko politik kemungkinan besar tidak mudah dikejutkan oleh dampak risiko-risiko tersebut dan bisa pulih dengan lebih cepat. Sebaliknya, perusahaan yang tidak serius menyikapi hal-hal mendasar ini cenderung akan mudah diserang pada titik kelemahannya</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168243-Political-Risk.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Rahasia Membeli Emas Dengan Harga Diskon 50%</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>RYAN FILBERT &amp; ABRAHAM SANTOSA</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>9786230027727</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>September - 2021</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>300 gr</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>63000</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118147_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Apakah Anda termasuk orang yang ingin memiliki emas karena harganya yang cenderung naik dari hari ke hari? Meskipun ada juga sebagian orang yang suka memiliki emas karena ingin menjadikannya sebagai perhiasan dan sambil berinvestasi. Sebenarnya cara berinvestasi emas yang benar adalah dengan membeli emas logam mulia 23 karat. Ada banyak masalah ketika kita harus membeli emas untuk berinvestasi, apa saja masalahnya? Emas cukup sulit untuk disimpan. Bagaimana tidak? Semakin banyak emas yang kita miliki, kita akan semakin khawatir jika dicuri, akhirnya kita harus menyimpan pada brankas atau safe deposit box. Belum lagi, memiliki emas batangan dengan gramasi yang kecil sebenarnya merugikan kita, karena pembuatan emas dengan gramasi yang kecil akan menjadi mahal pada biaya cetak. Masih ada masalah juga, ketika seri emas logam mulia desain berganti, rupanya memiliki potongan harga yang berbeda. Belum lagi bicara tentang sertifikat yang hilang. Di zaman yang serba digital, menabung emas dengan buku tabungan emas adalah era yang modern. Tapi di buku ini kita akan belajar bagaimana caranya membeli emas lebih daripada yang Anda lakukan dengan buku tabungan emas. Anda membeli 1 gram seharga 1 gram emas? Dan tercatat pada buku tabungan? Hmmm... Strategi yang bagus! Bagaimana kalau membeli 2 gram seharga 1 gram emas? Bagaimana bisa? Mari kita bahas dalam buku ini!</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168147-Rahasia-Membeli-Emas-Dengan-Harga-Diskon-50.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Yuk, Nabung Seluruh Saham</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>RYAN FILBERT &amp; ADI PRASETYA TEGUH</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>9786230027925</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>September - 2021</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>250 gr</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>58500</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118146_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Banyak orang dalam hidupnya mencari sebuah `resep rahasia` untuk sehat. Seperti berusaha mencari suplemen paling sakti, membeli peralatan kesehatan yang katanya bisa menurunkan berat badan, menghilangkan lemak, dan janji-janji fantastis lainnya. Apakah semua itu hanyalah kebohongan? Rasanya tidak. Namun, orang sering melupakan bahwa ada aturan sederhana untuk `resep umum`. Apakah itu? Yaitu kembali ke nasihat kakek dan nenek kita semua untuk makan makanan bergizi, tidak makan berlebihan, berolahraga dan berkeringat, menjaga kebersihan, beristirahat yang cukup dan mengelola pikiran Anda. Setelah Anda sembuh dari sakit, rasanya dokter Anda juga mengatakan hal yang sama. Di Indonesia hype membeli saham terjadi, apalagi setelah gerakan Yuk Nabung Saham. Namun buku ini hadir untuk menyajikan strategi lain yang lebih praktis dari Yuk Nabung Saham, yaitu: Yuk Nabung Seluruh Saham Sama halnya dengan mencari resep umum untuk sehat, investasi saham juga memiliki resep umum untuk untung tanpa harus memilih secara selektif (dan ini dapat dibuktikan dengan data historis). Cara tersebut yaitu membeli semua saham! Apa maksudnya? Kenapa? Mari kita pelajari konsep lainnya dari investasi saham di buku ini!</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168146-Yuk,-Nabung-Seluruh-Saham.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Loonshots: Ide-Ide Gila yang Memenangkan Perang, Menyembuhkan Penyakit, dan Mengubah Sektor Industri</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Safi Bahcall</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>9786020637204</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Gramedia Pustaka Utama</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>November - 2020</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>700 gr</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>140000</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>126000</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118092_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>"io Leadership Books to Watch for in 2019" menurut Washington Post"Best of Summer Books" menurut Newsweek "Summer Books of 2019" menurut Financial Times "Top Books on Leadership" menurut Thrive Global "io Business Books You Need to Read in 2019" menurut Inc.com"14 Books Everyone Will Be Reading in 2019" menurut Business Insider"Top Business Books to Read in 2019" menurut Management TodayApa persamaan yang dimiliki James Bond dan obat penurun kolesterol? Apa yang bisa kita pelajari tentang sifat manusia dan sejarah dunia dari segelas air?Berangkat dari ilmu peralihan fase, Bahcall menunjukkan kenapa tim, perusahaan, atau kelompok apa pun yang memiliki suatu misi tiba-tiba berubah, dari menerima dengan hangat suatu gagasan baru yang berani menjadi menolaknya dengan sepenuh hati, seperti halnya air yang mengalir tiba-tiba berubah menjadi es yang rapuh. Sudah banyak buku yang ditulis tentang budaya kerja. Loonshots mengidentifikasi pergeseran kecil dalam struktur yang mengendalikan peralihan ini, dalam cara yang sama seperti suhu mengendalikan perubahan dari air menjadi es.Bahcall menunjukkan bagaimana ilmu baru ini membantu kita memahami perilaku perusahaan dan takdir kerajaan. Loonshots menyarikan wawasan-wawasan ini bagi orang kreatif, pengusaha, dan visioner dimanapun mereka berada. Kalau ilmu pengetahuan abad kedua puluh dibentuk oleh pencarian hukum fundamental, seperti mekanika kuantum dan gravitasi, ilmu pengetahuan abad ke-21 akan dibentuk oleh ilmu baru ini. Loonshots adalah yang pertama menerapkan alat ini untuk membantu kita menciptakan serta memupuk ide-ide gila yang mengubah dunia."Buku yang mendobrak dan merentang melewati bidang-bidang industri serta waktu." Newsweek"Penggalian yang jenaka dan menyegarkan tentang perilaku manusia dan penemuan." Nature</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168092-Loonshots:-Ide-Ide-Gila-yang-Memenangkan-Perang,-Menyembuhkan-Penyakit,-dan-Mengubah-Sektor-Industri.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Mengungkap Rahasia Bull Market Terhebat Sepanjang Sejarah</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Hary Suwanda</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9786230027314</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Elex Media Komputindo</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Juli - 2021</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>250 gr</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>72000</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/118091_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Saya pertama kali berkenalan dengan dunia saham pada tahun 2003, dan saat itu adalah salah satu zaman keemasan Bursa Efek Indonesia. Beli saham apa saja di tahun itu untung. Ternyata tahun 2003 adalah awal dimulainya Secular Bull Market pertama di Bursa Efek Indonesia. Hingga tahun 2007, Indeks Harga Saham Gabungan (IHSG) mencatatkan kenaikan hingga 578,56%. Memasuki tahun 2008, situasi berbalik. IHSG mengalami koreksi sebesar 61,6%. Penyebabnya adalah krisis Subprime Mortgage di Amerika Serikat. Guna menanggulangi krisis ini, Bank Sentral AS, The Fed, menggelontorkan Quantitative Easing sebesar 4,5 triliun US Dollar. Akibatnya sejak tahun 2009, Bursa Saham Amerika pun mulai pulih. Dan sejalan dengan pulihnya Bursa Saham Amerika, IHSG juga bergerak naik. Tahun 2009 menjadi titik awal zaman keemasan IHSG yang kedua. Kini di tahun 2020, dunia mengalami pandemi global Covid-19. Bank Sentral AS, The Fed, kembali menggelontorkan likuiditas secara masif, Quantitative Easing tanpa batas. Apakah ada pengaruh likuiditas yang diciptakan The Fed terhadap pasar saham di negara berkembang seperti Indonesia? Dalam buku ini saya mencoba melakukan Analisis Intermarket, yang merupakan salah satu cabang Analisis Teknikal yang meneliti berbagai korelasi antara golongan aset yang satu dengan yang lainnya, guna mengantisipasi pengaruh likuiditas US Dollar terhadap potensi Secular Bull Market di IHSG.</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Bisnis/168091-Mengungkap-Rahasia-Bull-Market-Terhebat-Sepanjang-Sejarah.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Japan's Best Destination</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Evan Yovian</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>9786230403637</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Bhuana Ilmu Populer</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>April - 2021</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>400 gr</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>soft cover</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Travel-Wisata</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Indonesia ·</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Gudang Penerbit</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>135000</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>121500</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/babacms/displaybuku/117543_f.jpg</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Jepang dengan segala pesonanya memang merupakan destinasi liburan impian yang semakin popular di kalangan umum. Kita bisa menikmati segala hal yang ada di Jepang, mulai dari keindahan alam, tempat dan bersejarah, budaya popular, tempat untuk berbelanja dan sebagainya. Untuk yang pertama kali ke Jepang, mungkin akan kesulitan untuk menentukan kota mana saja yang harus dikunjungi dan destinasi apa saja yang harus disinggahi. Japans Best Destination akan membantu kita menjelajah Tokyo, Kyoto, Osaka, Nara, Gunung Fuji, serta Hokkaido. Tokyo, sebagai ibu kota negara Jepang, memiliki banyak destinasi wisata menarik yang bisa dinikmati mulai dari wisata alam, budaya, religi, kuliner, hiburan malam, dan sebagainya. Osaka terkenal dengan gedung-gedung pencakar langitnya, pusat industri, serta kota pelabuhan. Kyoto, kota bersejarah dengan kuil-kuil yang kental dengan budaya tradisional Jepang. Nara, salah satu situs warisan dunia UNESCO yang dikenal dengan 1.000 rusa suci yang telah belajar untuk mendapatkan makanan. Jangan lupa juga untuk mengunjungi Gunung Fuji, gunung tertinggi di Jepang yang menjadi kebanggaan rakyat Jepang, serta menikmati salju di Hokkaido. Buku ini akan memberikan semua informasi yang dibutuhkan wisawatan yang ingin ke traveling ke Jepang. Berisi berbagai destinasi wisata yang wajib di Jepang, sampai destinasi antimainstream yang kadang terlewatkan oleh wisatawan. Dilengkapi juga dengan berbagai pilihan transportasi, hotel, sampai tempat makan, yang murah tapi elegan sampai ke yang mewah. Jadi, udah nggak takut kan buat traveling ke Jepang?</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>https://www.bukukita.com/Majalah/Travel-Wisata/167543-Japans-Best-Destination.html</t>
         </is>
       </c>
     </row>
